--- a/Chapter_04/Chapter_4_Table_S4.7.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC8EA09-7D58-4396-ACBF-2CF48CFB78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5DD5382-DB44-441A-A35A-3BA145A2D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{4CE20ABB-69AA-4926-9CE1-28A594D93182}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{F024A094-A0D9-4034-AB6B-770181B5A04F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -57,7 +57,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Selected hyperparamaters for models trained in the training set via five-fold cross validation</t>
+      <t xml:space="preserve"> Selected hyperparamaters for models trained in the training set via five-fold cross-validation</t>
     </r>
   </si>
   <si>
@@ -73,6 +73,9 @@
     <t>Hyperparamater 3</t>
   </si>
   <si>
+    <t>Hyperparamater 4</t>
+  </si>
+  <si>
     <t>GLM</t>
   </si>
   <si>
@@ -94,7 +97,7 @@
     <t>alpha = 1</t>
   </si>
   <si>
-    <t>lambda = 0.01601144</t>
+    <t>lambda = 0.003810342</t>
   </si>
   <si>
     <t>ENET</t>
@@ -103,7 +106,7 @@
     <t>alpha = 0.05</t>
   </si>
   <si>
-    <t>lambda = 0.06181556</t>
+    <t>lambda = 0.05741517</t>
   </si>
   <si>
     <t>NB</t>
@@ -115,28 +118,37 @@
     <t>usekernel = TRUE</t>
   </si>
   <si>
-    <t>adjust = 0.2</t>
+    <t>adjust = 0.3</t>
   </si>
   <si>
     <t>RF</t>
   </si>
   <si>
-    <t>mtry = 27</t>
+    <t>mtry = 2</t>
   </si>
   <si>
     <t>splitrule = "gini"</t>
   </si>
   <si>
+    <t>min.node.size = 3</t>
+  </si>
+  <si>
+    <t>num.trees = 751</t>
+  </si>
+  <si>
+    <t>RF (ET)</t>
+  </si>
+  <si>
+    <t>mtry = 50</t>
+  </si>
+  <si>
+    <t>splitrule = "extratrees"</t>
+  </si>
+  <si>
     <t>min.node.size = 2</t>
   </si>
   <si>
-    <t>RF (ET)</t>
-  </si>
-  <si>
-    <t>mtry = 40</t>
-  </si>
-  <si>
-    <t>splitrule = "extratrees"</t>
+    <t>num.trees  = 3001</t>
   </si>
   <si>
     <t>MLP</t>
@@ -222,13 +234,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2193D7-C13B-49CB-8A7D-6C4D59693670}" name="Table7" displayName="Table7" ref="A2:D10" totalsRowShown="0">
-  <autoFilter ref="A2:D10" xr:uid="{5720FF0D-04A1-4F13-88AA-16D3CA2E4CFD}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E701295C-23C0-41A8-8CC2-B46A98AABDE6}" name="Model"/>
-    <tableColumn id="2" xr3:uid="{253FDDCF-2AEA-41BB-B202-ADEAB079076B}" name="Hyperparamater 1"/>
-    <tableColumn id="3" xr3:uid="{4CEDFEE7-7E7A-4C7D-92CA-9F43146703B7}" name="Hyperparamater 2"/>
-    <tableColumn id="4" xr3:uid="{E70B13FC-8E92-49B5-801A-6E407F3D6335}" name="Hyperparamater 3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67DE1738-458C-432A-86B8-09E90F95F3F3}" name="Table7" displayName="Table7" ref="A2:E10" totalsRowShown="0">
+  <autoFilter ref="A2:E10" xr:uid="{5720FF0D-04A1-4F13-88AA-16D3CA2E4CFD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8BE5F318-B80B-4750-AF99-3C9DAA2A9019}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{2D9B87B4-CEC1-4F92-8C9D-C359C9BFF907}" name="Hyperparamater 1"/>
+    <tableColumn id="3" xr3:uid="{E3A72588-BD7A-4248-94E7-89A24ECBA666}" name="Hyperparamater 2"/>
+    <tableColumn id="4" xr3:uid="{BE363C24-57D1-4538-9050-2176CF83521F}" name="Hyperparamater 3"/>
+    <tableColumn id="5" xr3:uid="{CB6CC7C0-03A3-4D56-9687-3C38390F31D9}" name="Hyperparamater 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,7 +563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0958C-C358-4025-B33A-DB71F04023B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E95F797-85FF-4F8E-BE59-D9F7AE46F26A}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -563,7 +576,7 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -582,7 +595,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -595,117 +608,144 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
